--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_T45.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_T45.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1352154364003263</v>
+        <v>0.05294722152870939</v>
       </c>
       <c r="C2">
-        <v>0.23198446106715</v>
+        <v>2.238670449449698</v>
       </c>
       <c r="D2">
-        <v>0.2545140212335539</v>
+        <v>21.89410068642309</v>
       </c>
       <c r="E2">
-        <v>0.504493826754653</v>
+        <v>4.67911323718748</v>
       </c>
       <c r="F2">
-        <v>0.4969593252438608</v>
+        <v>4.788918458868004</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.410665070665073</v>
+        <v>-0.06993565119730449</v>
       </c>
       <c r="C3">
-        <v>2.596388298586061</v>
+        <v>2.484982260240081</v>
       </c>
       <c r="D3">
-        <v>26.31885526302818</v>
+        <v>20.6686104960718</v>
       </c>
       <c r="E3">
-        <v>5.130190567905658</v>
+        <v>4.54627435336582</v>
       </c>
       <c r="F3">
-        <v>5.234067016424154</v>
+        <v>4.657993717879145</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.9427454607211139</v>
+        <v>-0.5679799476115557</v>
       </c>
       <c r="C4">
-        <v>2.394021067790873</v>
+        <v>1.738661634217984</v>
       </c>
       <c r="D4">
-        <v>19.00138225390311</v>
+        <v>9.770321410320426</v>
       </c>
       <c r="E4">
-        <v>4.359057496053833</v>
+        <v>3.125751335330504</v>
       </c>
       <c r="F4">
-        <v>4.360991161731755</v>
+        <v>3.153564430997775</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.1609758476115556</v>
+        <v>-0.1698634615297453</v>
       </c>
       <c r="C5">
-        <v>1.331657534217984</v>
+        <v>1.407413280483496</v>
       </c>
       <c r="D5">
-        <v>6.400840711354078</v>
+        <v>9.516255737529789</v>
       </c>
       <c r="E5">
-        <v>2.529988282849168</v>
+        <v>3.084842903217243</v>
       </c>
       <c r="F5">
-        <v>2.590453625757429</v>
+        <v>3.164566327120173</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.07574193521395585</v>
+        <v>-0.1701844293363445</v>
       </c>
       <c r="C6">
-        <v>1.494237072137884</v>
+        <v>1.931438934375882</v>
       </c>
       <c r="D6">
-        <v>9.671523505559456</v>
+        <v>13.53019059843001</v>
       </c>
       <c r="E6">
-        <v>3.109907314625222</v>
+        <v>3.678340739848609</v>
       </c>
       <c r="F6">
-        <v>3.194178268796918</v>
+        <v>3.780928157538495</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.3467465960030111</v>
+        <v>-0.2922294451516887</v>
       </c>
       <c r="C7">
-        <v>1.917003265407361</v>
+        <v>1.859773159921934</v>
       </c>
       <c r="D7">
-        <v>13.48431232460344</v>
+        <v>10.51533673933257</v>
       </c>
       <c r="E7">
-        <v>3.672099171400936</v>
+        <v>3.242735995935002</v>
       </c>
       <c r="F7">
-        <v>3.761675348046774</v>
+        <v>3.328935244021553</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.3096017392693358</v>
+        <v>-0.1996064344110716</v>
       </c>
       <c r="C8">
-        <v>1.877145454039581</v>
+        <v>1.805775804098517</v>
       </c>
       <c r="D8">
-        <v>10.57116444722301</v>
+        <v>11.52715139266361</v>
       </c>
       <c r="E8">
-        <v>3.251332718628318</v>
+        <v>3.395165885882987</v>
       </c>
       <c r="F8">
-        <v>3.336168185344669</v>
+        <v>3.500447005970189</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.0424536219110716</v>
+        <v>-0.08544148817198256</v>
       </c>
       <c r="C9">
-        <v>1.743620181688103</v>
+        <v>1.883541101007153</v>
       </c>
       <c r="D9">
-        <v>11.37086449867186</v>
+        <v>11.80030034152509</v>
       </c>
       <c r="E9">
-        <v>3.372071247567562</v>
+        <v>3.435156523584491</v>
       </c>
       <c r="F9">
-        <v>3.482384193035339</v>
+        <v>3.55462476826579</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1474229548386492</v>
+        <v>-0.1451545775010554</v>
       </c>
       <c r="C10">
-        <v>1.844192231578261</v>
+        <v>2.090306142858136</v>
       </c>
       <c r="D10">
-        <v>11.76371683194192</v>
+        <v>13.68531860180392</v>
       </c>
       <c r="E10">
-        <v>3.429827522185616</v>
+        <v>3.699367324530497</v>
       </c>
       <c r="F10">
-        <v>3.546927740664431</v>
+        <v>3.836058499053441</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.1432630465947277</v>
+        <v>-0.1153228724130859</v>
       </c>
       <c r="C11">
-        <v>2.238041655440814</v>
+        <v>2.085397217002122</v>
       </c>
       <c r="D11">
-        <v>14.73581901823137</v>
+        <v>13.53761179153203</v>
       </c>
       <c r="E11">
-        <v>3.838726223401633</v>
+        <v>3.679349370681184</v>
       </c>
       <c r="F11">
-        <v>3.992689479225886</v>
+        <v>3.827706684449967</v>
       </c>
       <c r="G11">
         <v>13</v>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_T45.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_T45.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.05294722152870939</v>
+        <v>0.1352154364003263</v>
       </c>
       <c r="C2">
-        <v>2.238670449449698</v>
+        <v>0.23198446106715</v>
       </c>
       <c r="D2">
-        <v>21.89410068642309</v>
+        <v>0.2545140212335539</v>
       </c>
       <c r="E2">
-        <v>4.67911323718748</v>
+        <v>0.504493826754653</v>
       </c>
       <c r="F2">
-        <v>4.788918458868004</v>
+        <v>0.4969593252438608</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.06993565119730449</v>
+        <v>0.410665070665073</v>
       </c>
       <c r="C3">
-        <v>2.484982260240081</v>
+        <v>2.596388298586061</v>
       </c>
       <c r="D3">
-        <v>20.6686104960718</v>
+        <v>26.31885526302818</v>
       </c>
       <c r="E3">
-        <v>4.54627435336582</v>
+        <v>5.130190567905658</v>
       </c>
       <c r="F3">
-        <v>4.657993717879145</v>
+        <v>5.234067016424154</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.5679799476115557</v>
+        <v>-0.9427454607211139</v>
       </c>
       <c r="C4">
-        <v>1.738661634217984</v>
+        <v>2.394021067790873</v>
       </c>
       <c r="D4">
-        <v>9.770321410320426</v>
+        <v>19.00138225390311</v>
       </c>
       <c r="E4">
-        <v>3.125751335330504</v>
+        <v>4.359057496053833</v>
       </c>
       <c r="F4">
-        <v>3.153564430997775</v>
+        <v>4.360991161731755</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.1698634615297453</v>
+        <v>-0.1609758476115556</v>
       </c>
       <c r="C5">
-        <v>1.407413280483496</v>
+        <v>1.331657534217984</v>
       </c>
       <c r="D5">
-        <v>9.516255737529789</v>
+        <v>6.400840711354078</v>
       </c>
       <c r="E5">
-        <v>3.084842903217243</v>
+        <v>2.529988282849168</v>
       </c>
       <c r="F5">
-        <v>3.164566327120173</v>
+        <v>2.590453625757429</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1701844293363445</v>
+        <v>-0.07574193521395585</v>
       </c>
       <c r="C6">
-        <v>1.931438934375882</v>
+        <v>1.494237072137884</v>
       </c>
       <c r="D6">
-        <v>13.53019059843001</v>
+        <v>9.671523505559456</v>
       </c>
       <c r="E6">
-        <v>3.678340739848609</v>
+        <v>3.109907314625222</v>
       </c>
       <c r="F6">
-        <v>3.780928157538495</v>
+        <v>3.194178268796918</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.2922294451516887</v>
+        <v>-0.3467465960030111</v>
       </c>
       <c r="C7">
-        <v>1.859773159921934</v>
+        <v>1.917003265407361</v>
       </c>
       <c r="D7">
-        <v>10.51533673933257</v>
+        <v>13.48431232460344</v>
       </c>
       <c r="E7">
-        <v>3.242735995935002</v>
+        <v>3.672099171400936</v>
       </c>
       <c r="F7">
-        <v>3.328935244021553</v>
+        <v>3.761675348046774</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.1996064344110716</v>
+        <v>-0.3096017392693358</v>
       </c>
       <c r="C8">
-        <v>1.805775804098517</v>
+        <v>1.877145454039581</v>
       </c>
       <c r="D8">
-        <v>11.52715139266361</v>
+        <v>10.57116444722301</v>
       </c>
       <c r="E8">
-        <v>3.395165885882987</v>
+        <v>3.251332718628318</v>
       </c>
       <c r="F8">
-        <v>3.500447005970189</v>
+        <v>3.336168185344669</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.08544148817198256</v>
+        <v>-0.0424536219110716</v>
       </c>
       <c r="C9">
-        <v>1.883541101007153</v>
+        <v>1.743620181688103</v>
       </c>
       <c r="D9">
-        <v>11.80030034152509</v>
+        <v>11.37086449867186</v>
       </c>
       <c r="E9">
-        <v>3.435156523584491</v>
+        <v>3.372071247567562</v>
       </c>
       <c r="F9">
-        <v>3.55462476826579</v>
+        <v>3.482384193035339</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1451545775010554</v>
+        <v>-0.1474229548386492</v>
       </c>
       <c r="C10">
-        <v>2.090306142858136</v>
+        <v>1.844192231578261</v>
       </c>
       <c r="D10">
-        <v>13.68531860180392</v>
+        <v>11.76371683194192</v>
       </c>
       <c r="E10">
-        <v>3.699367324530497</v>
+        <v>3.429827522185616</v>
       </c>
       <c r="F10">
-        <v>3.836058499053441</v>
+        <v>3.546927740664431</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.1153228724130859</v>
+        <v>-0.1432630465947277</v>
       </c>
       <c r="C11">
-        <v>2.085397217002122</v>
+        <v>2.238041655440814</v>
       </c>
       <c r="D11">
-        <v>13.53761179153203</v>
+        <v>14.73581901823137</v>
       </c>
       <c r="E11">
-        <v>3.679349370681184</v>
+        <v>3.838726223401633</v>
       </c>
       <c r="F11">
-        <v>3.827706684449967</v>
+        <v>3.992689479225886</v>
       </c>
       <c r="G11">
         <v>13</v>
